--- a/Daily/刘书宁日报.xlsx
+++ b/Daily/刘书宁日报.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AIED\AIED\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F88EEC5-47DF-4E0A-B425-B05DCC12E0C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEA9FA1-8FD3-4805-B264-3726FCFCD40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F4B7F529-D546-4ADE-930A-64A30B0D52CC}"/>
+    <workbookView xWindow="11430" yWindow="4425" windowWidth="21600" windowHeight="9600" xr2:uid="{F4B7F529-D546-4ADE-930A-64A30B0D52CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1"/>
@@ -52,6 +52,22 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>可行性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告中，项目概况，服务器部分功能的填写</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -461,18 +477,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD7492C-6925-495D-BF49-22ECCEB5A88E}">
   <dimension ref="B2:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.625" style="2"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="3">
         <v>44147</v>
       </c>
@@ -494,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,23 +523,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>44148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="I7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>44149</v>
       </c>

--- a/Daily/刘书宁日报.xlsx
+++ b/Daily/刘书宁日报.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\AIED\AIED\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEA9FA1-8FD3-4805-B264-3726FCFCD40C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFCB0F2-101B-47EC-BF07-E4DF8784185F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="4425" windowWidth="21600" windowHeight="9600" xr2:uid="{F4B7F529-D546-4ADE-930A-64A30B0D52CC}"/>
+    <workbookView xWindow="1020" yWindow="6000" windowWidth="21600" windowHeight="9600" xr2:uid="{F4B7F529-D546-4ADE-930A-64A30B0D52CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
